--- a/@Functions/ddateexport1.xlsx
+++ b/@Functions/ddateexport1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Document Code</t>
   </si>
@@ -53,7 +53,7 @@
     <t>PERIOD:</t>
   </si>
   <si>
-    <t>July 2020</t>
+    <t>January 1970</t>
   </si>
   <si>
     <t>No.</t>
@@ -96,69 +96,6 @@
   </si>
   <si>
     <t>Remark</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>July 07, 2020</t>
-  </si>
-  <si>
-    <t>04:07 PM</t>
-  </si>
-  <si>
-    <t>DFAF</t>
-  </si>
-  <si>
-    <t>AFAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2Day/s  </t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>01:00 AM</t>
-  </si>
-  <si>
-    <t>PHILHEALTH INSURANCE CORP</t>
-  </si>
-  <si>
-    <t>Tro remit payment of GS premiums due for the month of Dec 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Day/s  </t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>Queen Lois Catering Service</t>
-  </si>
-  <si>
-    <t>CEREMONIAL DEMILITARIZATION OF FIREARMS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1Day/s  </t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>GSIS</t>
-  </si>
-  <si>
-    <t>To payment for the GSIS insurance of 2 isuzu crosswind- CN8994 and CN8974</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>Silicon Valley Computer Group Phil. Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refill of ink  </t>
   </si>
 </sst>
 </file>
@@ -945,7 +882,7 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1169,314 +1106,138 @@
     </row>
     <row r="15" spans="1:23" customHeight="1" ht="48">
       <c r="A15" s="13"/>
-      <c r="B15" s="13">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13">
-        <v>2128</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:23" customHeight="1" ht="48">
       <c r="A16" s="13"/>
-      <c r="B16" s="13">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="13">
-        <v>197911.5</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:23" customHeight="1" ht="48">
       <c r="A17" s="13"/>
-      <c r="B17" s="13">
-        <v>111</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="13">
-        <v>2997</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:23" customHeight="1" ht="48">
       <c r="A18" s="13"/>
-      <c r="B18" s="13">
-        <v>111</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="13">
-        <v>2997</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:23" customHeight="1" ht="48">
       <c r="A19" s="13"/>
-      <c r="B19" s="13">
-        <v>111</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="13">
-        <v>2997</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
     <row r="20" spans="1:23" customHeight="1" ht="48">
       <c r="A20" s="13"/>
-      <c r="B20" s="13">
-        <v>66</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="13">
-        <v>19</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
     <row r="21" spans="1:23" customHeight="1" ht="48">
       <c r="A21" s="13"/>
-      <c r="B21" s="13">
-        <v>999</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="13">
-        <v>2</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
-      <c r="N21" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="N21" s="15"/>
       <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:23" customHeight="1" ht="48">
       <c r="A22" s="13"/>
-      <c r="B22" s="13">
-        <v>999</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="13">
-        <v>2</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
-      <c r="N22" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="N22" s="15"/>
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:23" customHeight="1" ht="48">

--- a/@Functions/ddateexport1.xlsx
+++ b/@Functions/ddateexport1.xlsx
@@ -53,7 +53,7 @@
     <t>PERIOD:</t>
   </si>
   <si>
-    <t>January 1970</t>
+    <t>January 2022</t>
   </si>
   <si>
     <t>No.</t>

--- a/@Functions/ddateexport1.xlsx
+++ b/@Functions/ddateexport1.xlsx
@@ -53,7 +53,7 @@
     <t>PERIOD:</t>
   </si>
   <si>
-    <t>January 2022</t>
+    <t>January 1970</t>
   </si>
   <si>
     <t>No.</t>
